--- a/fuentes/contenidos/grado08/guion01/CN_08_01_CO_REC30_SolicitudGrafica.xlsx
+++ b/fuentes/contenidos/grado08/guion01/CN_08_01_CO_REC30_SolicitudGrafica.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Edición\Amanda Varela\CN_08_01_CO\Procesar Jose\Procesado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1838,7 +1843,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1846,6 +1851,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1879,7 +1898,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1887,6 +1906,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1920,7 +1953,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1928,6 +1961,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1961,7 +2008,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1969,6 +2016,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2002,7 +2063,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2010,6 +2071,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2043,7 +2118,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2051,6 +2126,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2084,7 +2173,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2092,6 +2181,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2427,7 +2530,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
